--- a/facebook_comments_bistar.ecopark.xlsx
+++ b/facebook_comments_bistar.ecopark.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="223">
   <si>
     <t>username</t>
   </si>
@@ -39,13 +39,273 @@
     <t>comment_reactions</t>
   </si>
   <si>
+    <t>https://www.facebook.com/minhchau3001</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02PtYW88zfwePDSoC8F4yPmE6powbyX5VkRjHyqh2WMLUKEg1LgPFNP133p2Ukf1oal</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Thích quá ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.huonggiang.96</t>
+  </si>
+  <si>
+    <t>Nguyen Huong Giang Nguyen Huong Giang Nguyen Huong Giang Nguyen Huong Giang Cô Hà hình như hát hay nữa đúng ko ạ? Lại cong biết chơi đàn nữa 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hoale.cao</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0gifYY3MYyomXovp2GADAxpNLCn8sdo7x5cuyzrZBHsMPtxHiByZDeqhZDz5ZFVpdl</t>
+  </si>
+  <si>
+    <t>Cao Sulli Cao Sulli Cao Sulli Cao Sulli Phúc bảo con k muốn học lớp 1 con muốn học mãi ở mẫu giáo các cô ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02YuLFcJup3fXVgVxyzZijrgpz9c53VZE7Skjmeve1G1XPYAMu2qk7BE4tnkQ9pKirl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 32 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02DXTAbtaE2u4Fg6P4vbP5YrUiCZwd9pYr5U1XFMzQH5YJvX9cKsVroMez6VVX3oY5l</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 37 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/van.duong.3958914</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van Các con dễ thương quá! 37 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bao.binh.1253</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid033ovgRfbtNuTNiRQge6c7zg3jqRTDkGYywJCAQhk2qXNdErjcfsy2t1zMbnZ5jLuzl</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Bill thik lắm ạ, về kể sung sướng 43 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0KX4v6y9vdPdBkfH1eHVFwaq77P6PardsCmCFwCSvxmheqFoyyuXDtMzMtDuxQT73l</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hongha18787</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0Bu6Ttmk1WoTXykDsKxE5pYKVboeG9wnoZfXa3gcL3DzzcHBPpzACwYF7T1F2rsZfl</t>
+  </si>
+  <si>
+    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
+Theo dõi   · · Theo dõi Nhìn em biểu cảm ghét quá 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/giangluvy</t>
+  </si>
+  <si>
+    <t>Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang   ·
+Theo dõi   · · Theo dõi Hà Nguyễn Hà Nguyễn Hà Nguyễn Hà Nguyễn 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02mGdDJfefRDLU72nGBM3AU8h6vxSUERGU4ZPHhGQFVQToGoahCiQ4ac6wWUzouc6sl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 35 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van Tuyệt vời quá 35 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0CXa5kTpjbKmcsawAPoeU9GPi2xRfp2HtA6cJLfD7YBfdZ3gsxZ7jCX9zja9Pi7y1l</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 27 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0a68rFDHzMJfQnPVysLo4bngDmTFKJr16D6vE2e5mKQ1WmDwSSwbqEwyb1zBASmJMl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02o49zmZVug1yAnfQg2AUeAN4kCMpyVxhDBLyF8hdnSMKUMb3QVMiDvyHdgXUgSFWTl</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đáng yêu quá 1 năm Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kinxinhxinh.99</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0tVZBn65CEjjUk2jBessEGQ3TGUFNNJ6muVzBGSypNkT11HSMjVx3DyvYAtnxF63Jl</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Bảo Lâm Phạm Ngọc Bảo Lâm Phạm Ngọc Bảo Lâm Phạm Ngọc Bảo Lâm con cảm ơn trường
+Mầm non Bistar Ecopark
+ạ Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/@mainga.happymusickids/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0Dcaw4dwo6tUKPj8AFZwa3fxXaHeR2VVcsGF3oPDxgGk3AFSDGpDz61WVgjNArwpUl</t>
+  </si>
+  <si>
+    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
+Theo dõi   · · Theo dõi 21 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0iLUavu2rcTvUjukkw5mgShKM3u2RRk8foLsyexbmX3kxs6dZ4h2PuVR5v1FUjJYVl</t>
+  </si>
+  <si>
+    <t>Thi Vu Mai Thi Vu Mai Thi Vu Mai Thi Vu Mai Cac con dang Yeu qua 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02wAk1Gren1u1gQfTQ7aCGPsYdYoam1rcq2TLrEZ76HZiRq19bhdY9kt7gGvoFAWLLl</t>
+  </si>
+  <si>
+    <t>Hà Duyên Hà Duyên Hà Duyên Hà Duyên Các bé đáng yêu quá ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0i7oqxd86m5LwWgEXQA2RXZHrje85Fzi6kDdn3ae4Tcf8VYMiyRZe2p3VzenZHZLBl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 31 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02BJoUDurcaQGukhaEubHzyyWX2vsJz32KMHHJRn4Mgq9L8p6z83k3TN4Az1DkZjTQl</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Hnay Bill lại baoe mai mặc bộ kia tiếp đi làm BTV haha 4 ngày Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mr.cephan</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0ToGMjLN4WVnwaGsACjLg4hzfVvBz9XyLFP6PzbmkC3t8qa8KCzeAQWq4LoAhTFcKl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi gần trường có công viên hoa hướng dương đẹp quá. 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lyh.tao</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02xBw8khidC6CSheYBDRbey2xtN2S2MFqiPpPkrvZz1yto8FYtnxXJrtHbcvebakVLl</t>
+  </si>
+  <si>
+    <t>Mỹ Linh Mỹ Linh Mỹ Linh Mỹ Linh Đoàn Minh Châu
+Na Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu 24 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0D6fNB79YjEAQtA8TipZhV86zRZVQPro1fcBaSXn6Vd4Lo21PGVzSNGFHFqs5SYZ4l</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 34 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid031RSw2gbfCu2FmuBGKwE3zWDQUTqVt2h5KMycTeg4BNMPkyXx6DhNqGkjke2V4fcKl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark 15 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0228QLV9AQcdAbff2zL9ryfFhJ89vueAojS2D7oTL7JgieccCWSzurK8NwP3LBdr9al</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 30 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02EbozBcXY8iuv3oewdA4VZR3qDjrzeMhTWj1nVWp8SucFmmoir1JvytQ1xqEDKTsEl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Đồng phục dễ thương quá 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02b3wMpDaa1oapBw7Kfoq62sg2VGXf1RV8XaXCkwoTxfpNHkKfq52iHYtBcDocLKsl</t>
+  </si>
+  <si>
+    <t>Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang   ·
+Theo dõi   · · Theo dõi Tam Dang
+cô tâm đki gian hàg sang bán trà sữa đi nè,món trà sữa trẻ con nào cug thích Tam Dang Tam Dang Tam Dang 1 năm Thích Thích Đã chỉnh sửa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02qAaeKzCNDUE5nESTzQGLVbtMteRvy7fCJuenwzDwSorUrRE3HyHfoSjMFs3AJL1El</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Vẽ với quả bóng thật luôn đó nhé. すごい 2 năm Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/giong.cay.nong.nghiep.2024</t>
+  </si>
+  <si>
+    <t>Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Hăng say quên cả quấy uôn nhỉ. 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/phuongdo084</t>
+  </si>
+  <si>
+    <t>Phuong Do-Jennie Phuong Do-Jennie Phuong Do-Jennie Phuong Do-Jennie Trải nghiệm với màu nước luôn đc câc b nhỏ yêu thích ah 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02tw7MKXRPt5PCM4KrMVbubpiUyqPBEZh9Fur6XZPqgSQWrB58BiTuv4oSyyBhJZeMl</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van Trời nắng đẹp các con đi dạo chơi công viên thích quá ạ! 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02zTyAZjC9bEUhVutHyfon2vnMSx7sya9EJCNs4fvYWxeMohUmyTuETPmv3GmBZTydl</t>
+  </si>
+  <si>
+    <t>Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang   ·
+Theo dõi   · · Theo dõi Đinh Thương Đinh Thương Đinh Thương Đinh Thương 50 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid032eYWfra3QowkFnF8kEine1LBKApKTSZMYGuV34H4rVX319RtVtiN82CaK9ocgDbql</t>
+  </si>
+  <si>
+    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
+Theo dõi   · · Theo dõi Nhìn các bạn vui tươi hào hứng khi học cùng cô thích quá a 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Ở trường mình ngày nào các con cũng đc học tiếng anh 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>Bistar Ecopark Bistar Ecopark Bistar Ecopark Bistar Ecopark Dạ, hôm nào các con cũng được học tiếng Anh vui lắm mẹ Bill à. 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0wa7c6ghoxXoUEkhCrVaW5PmKMdDTwBDRVKif3MPpJFwTD2VP48YXqWBHuJxuPfYGl</t>
+  </si>
+  <si>
+    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
+Theo dõi   · · Theo dõi Các bạn yêu quá 1 năm Thích Thích</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/haodungbauphuong</t>
   </si>
   <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02ytmXKeUTguzLuyTaJ5TqqFXmGJx9n4nDUekkzYPTMnbt1CRm6EDkPcuE7VE1hRn5l</t>
-  </si>
-  <si>
-    <t>Không xác định</t>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02bRtjLHmMvEoNDcyv5p4unL8TFLzsy7cxLsS8dLU6kayLzKjQGGG3GaR3hu1vnqBJl</t>
+  </si>
+  <si>
+    <t>Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Cám ơn các cô đã phát động chương trình tác động lớn -tới thế hê mầm non 23 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Tuyệt quá 23 tuần Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02zCa3b9mvh3HZzboPHCRkabKjrUY8M7dXpYcKWUKaJZ4s8c9aHCGv2MzF5xha7F4vl</t>
   </si>
   <si>
     <t>Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Cám ơn các cô.có những bài hát gd vào tâm các con.ko thể quên và có sự biết ơn.với các bác nấu ăn ạ 20 tuần Thích Thích 3 3</t>
@@ -54,366 +314,415 @@
     <t>Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Cám ơn các cô nhiệt tình -dạy báo ,chăm sóc các con -mầm non lớn nhanh dáng yêu quá cơ 20 tuần Thích Thích 2 2</t>
   </si>
   <si>
-    <t>https://www.facebook.com/profile.php</t>
-  </si>
-  <si>
     <t>Binh Le Binh Le Binh Le Binh Le Các bạn nhỏ Bistar ăn ngon miệng quá. 20 tuần Thích Thích</t>
   </si>
   <si>
-    <t>https://www.facebook.com/van.duong.3958914</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid021vAqJjiM7jWj5XmX1ydaDj8dFCG5QYbuYAaYzLxKDTjo6Xxd7ArEHyXCcbrKz8bDl</t>
-  </si>
-  <si>
-    <t>Duong Van Duong Van Duong Van Duong Van Các con dễ thương quá! 50 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/hongha18787</t>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02uDi856W39t2d2RHnZd6WaLiMi2LY2h8GXZ6dx9FHDMiSBxnFNjvGK16ZuFJMYfyMl</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Hqua Bill mới thiết kế ra chiếc xe cảnh sát 50 tuần Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02CB9Z8aRpPpPqU4Y8EUHfVLRtH16vxC8muMwiUsqgnBtnjB4MAmz72f7n7U8ciSyDl</t>
+  </si>
+  <si>
+    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
+Theo dõi   · · Theo dõi Tuyệt quá ạ 30 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0EtC9dzznywN4tczuiRqSgjgqJPvZnbVBVUJbdE9bif4B2XhD2oUsG7d3fQiEGBpQl</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu bắt đầu từ mấy giờ ạ 20 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02Zqq34gAT9GxGYnm2GZBE2QmFkkMcXMLKL1NbcztnRzXQCX5PL1fggHgzS41P8Zpdl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 33 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02q7XHcK4gDhaqYXhziVFAvVSjQawPdc746BkEbRK6hVs7fH1KBGcq5rf8gCJrPAEXl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Chúc mừng team Bistar có thêm thành viên mới. 2 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.t.kuong</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid022oVyXhMiyG4Rx2656xnc72ayuCKxrULvAjNoD1pUtxcaFQUbD1k73KnQqhWe4vGXl</t>
+  </si>
+  <si>
+    <t>Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Xin gửi lời chúc tốt đẹp nhất đến tất cả những người phụ nữ mà Bistar làm cầu nối gia đình các phụ huynh, gia đình các cô để cùng chăm sóc và nuôi dạy những đứa con của mình. Chúc các cô, các mẹ, các chị em luôn xinh đẹp, nhận được nhiều quan tâm, tình… Xem thêm 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02ah5ki5YoqWh1FPchfMLFhBGQYqgev27L8etxigrjMv3LgZvcWxREV23h9eBShwLAl</t>
+  </si>
+  <si>
+    <t>Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Cô giáo ta xinh quá 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>Binh Le Binh Le Binh Le Binh Le Cô và trò Bistar yêu quá! 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0P1eqCvBrkbyRtDsShspUtMrYZWYsPKNUZ9Er9Kg5zVz6zvCPD89kRrNU6pzxFTB8l</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0pXtPjss9sbTVwa5bYpj5wmjJLZTGtH67gdDnvc3hjbYMvThE4JzkS65zj3nAsGcSl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi So lovely 1 năm Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nhaccungoaitroi</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0GEw6e8AJLWmR6Hsd9tDFwAmXos1Vof6aL22CSDaxccwHs7n881f3rGsfxSKjKvEil</t>
+  </si>
+  <si>
+    <t>Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Chúc Thầy/Cô một năm học mới thật nhiều niềm vui, gặt hái nhiều thành công và luôn giữ được tình yêu với nghề giáo cao quý. Kính chúc Thầy/Cô sức khỏe và hạnh phúc
+! 27 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid09soYm7A4Sy5ad9emrCZeUe3xUBxZiexv9LN9Z7ov5WCc7YLinyjPNHcHnPvr7wF1l</t>
+  </si>
+  <si>
+    <t>Thắng Phạm Thắng Phạm Thắng Phạm Thắng Phạm 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nha.may.huong.ngan</t>
+  </si>
+  <si>
+    <t>Nhà May Hương Ngân Nhà May Hương Ngân Nhà May Hương Ngân Nhà May Hương Ngân 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/giaducxamttsk</t>
+  </si>
+  <si>
+    <t>Đặng Gia Đức Đặng Gia Đức Đặng Gia Đức Đặng Gia Đức 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>Ngân Vũ Ngân Vũ Ngân Vũ Ngân Vũ ttac 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thoi.ong.rung</t>
+  </si>
+  <si>
+    <t>Thời Ong Rừng Thời Ong Rừng Thời Ong Rừng Thời Ong Rừng   ·
+Theo dõi   · · Theo dõi wow 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/thao.123276</t>
+  </si>
+  <si>
+    <t>Thu Thảo Thu Thảo Thu Thảo Thu Thảo   ·
+Theo dõi   · · Theo dõi 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyenthile.nguyen.94</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Nguyễn Lê Nguyễn Lê Nguyễn Lê 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/phai.canhhong.75436</t>
+  </si>
+  <si>
+    <t>Phạm Thắng Phạm Thắng Phạm Thắng Phạm Thắng   ·
+Theo dõi   · · Theo dõi chào chủ tus 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>Npp Sen Định HD Npp Sen Định HD Npp Sen Định HD Npp Sen Định HD hj 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02U2ojjF3xC9oFvoPpBSx1TeaWydexGbjaehFK7dBeMjMefsD5Ao1QvwCxNrypHhezl</t>
+  </si>
+  <si>
+    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
+Theo dõi   · · Theo dõi Ba mẹ của Bistar yêu quá ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/an.nhu.9003888</t>
+  </si>
+  <si>
+    <t>An Như An Như An Như An Như Tuyệt vời 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0joCHBC82wvgxp4DKNR4SqujCxvp2XyBGjJNE67ihdPSzWQ6oooaExtNjWWCcEEXl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 26 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0X1o9ZVT8AVFFRAfkMRiREdQuCB72EM9UHufRcSoCg32BwrZoyAi77Yfsqg7zUNgUl</t>
+  </si>
+  <si>
+    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
+Theo dõi   · · Theo dõi Chị Hằng xinh quá 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cam.nga.628512</t>
+  </si>
+  <si>
+    <t>Cam Nga Cam Nga Cam Nga Cam Nga Trần Thị Ngọc Ánh
+em chào c thỏ ngọc xinh đẹp ạ Trần Thị Ngọc Ánh Trần Thị Ngọc Ánh Trần Thị Ngọc Ánh 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Các con mải mê không ai hỏi chú Cuội đâu thì phải? 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0jGRg31sXDvJLtYUQEmVzgCKddEKsNSLbbuZg5iucfvvfhn25GFE3XG6YW2XJPnS9l</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 38 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kurtcobainrock</t>
+  </si>
+  <si>
+    <t>Kurt Robinson Kurt Robinson Kurt Robinson Kurt Robinson Thật tuyệt vời. 38 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02ResfFGpbfQnFbhgBVxi7BLV1NbEYmSni7GMQkRGr3so5zJJQi5vxaFfzKNsWyJ4gl</t>
+  </si>
+  <si>
+    <t>Binh Le Binh Le Binh Le Binh Le Các bạn nhỏ chơi vui vẻ quá. 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02QkTFVzYn3YHZu1C89xJTPayEZxVXizdVfJGNznoZwA9abzwEnzyYbfgE3AYkTDHAl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid033rSPfZboa1uLeQVq2kK8Koa5Wi37tHgnt6TtszYSkUv93djAsqJbUKo8bRXn8NBnl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0zqV4SsmuupfKGXQYGSbofob3TbTKjcSsbCX77Mn4a2kQzxRozVvo6L6pGBLx8Bszl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi 10+ nha con trai 1 năm Thích Thích 4 4</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vit.hensom</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid027q6FcpVyiVYoSagL3jgonZsafurKgN6ZiQhU2Awc3997NvXVrS554UEo5RfXY2mgl</t>
+  </si>
+  <si>
+    <t>Fan cứng Ngat Phi Ngat Phi Ngat Phi Ngat Phi Hôm trc mẹ thấy trong balo em có lá cờ, mẹ hỏi em đây là cờ nước nào, em bảo "cờ Nauy". Em bé Sữa tồ của mẹ học được nhiều điều hay ở trường Bistar lắm ạ 3 tuần Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid054zNThKSKc6qa7qsbZHk78HPb5RKHo8g4rWBS8io8jSxhawSrWgVgqxaksatVB7Xl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0xFsFSTRmtN5heKT88o1vMTSfvDbJMEL5DVgtDxra76GTSDBVs5QRC48iPvF6YzUMl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Nhà hàng Bistar 1 năm Thích Thích 4 4</t>
+  </si>
+  <si>
+    <t>Binh Le Binh Le Binh Le Binh Le Yêu quá các bạn nhỏ Bistar. 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0nbHsWANcZrDr1xaaVekbhBZTiGGqvgbx9Kmm1jygP1fPhnR9ZHEj7Dd9fWZSAgCsl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Những thiên thần bé nhỏ đầu tiên của Bistar Ecopark. Những lứa trẻ em đầu tiên bao giờ cũng "lời" nhất. Các em giống như các anh hai, chị hai trong nhà vậy đó. Khi có anh ba, chị tư rồi thì tha hồ mà mách cô.
+Chúc mừng thành công bước đầu này. 2 năm Thích Thích 4 4</t>
+  </si>
+  <si>
+    <t>Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Nguyen Trong Cuong Trông cảnh cô trò chuẩn bị tết lại thấy tràn về nỗi háo hức chơi tết ngày bé!!! 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/day.tre.tu.ky.2024</t>
+  </si>
+  <si>
+    <t>Dạy Trẻ Tự Kỷ Dạy Trẻ Tự Kỷ Dạy Trẻ Tự Kỷ Dạy Trẻ Tự Kỷ Yêu quá 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/yentrang.hana</t>
+  </si>
+  <si>
+    <t>Hang MioMio Hang MioMio Hang MioMio Hang MioMio 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02dPFcgfBRZs3HnBX2Fo5MVvV1ao2FSAScHw7ijeJnKSxpjZUZMbteyob5WBb1sYC6l</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Bill ở nhà cũng hay chơi trò này ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0fKrFG4rKzCovX2CHQrbNJXdiN2MRv3zn2PLQQptwg2DhDmPPPEZTPys4JLr1Fo9Cl</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van Nhìn các con đáng yêu , dễ thương quá ! 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid022DyMaF1p81jDbUwZcXWZmup7PwJeKeGGAJ5oyLpHz4bMzgTZyA6FszHP9FPrGuutl</t>
   </si>
   <si>
     <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
 Theo dõi   · · Theo dõi Nhìn nét mặt các bé rất tập trung kiểu thích thú ghét quá 51 tuần Thích Thích</t>
   </si>
   <si>
-    <t>https://www.facebook.com/bistar.ecopark</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid033srduFrUH6cH7T5YddQQapPErtyHrASQDGKaf2S7SzAQMG9DiRcGJqgxCPKFYTwWl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 34 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/phuong.thoa.10</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid07JczynuichBpBR2kD4xDoKTeP5GsxxqZcVPEidrD3Xkdh18YBaqQ4yZr3Qtqijvsl</t>
-  </si>
-  <si>
-    <t>Phương Thoa Phương Thoa Phương Thoa Phương Thoa Sữa thối kìa 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/minhchau3001</t>
-  </si>
-  <si>
-    <t>Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Dương Đỗ
-đậu handsome tươi chưa c này Dương Đỗ Dương Đỗ Dương Đỗ 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid031bbwKpsQ2JP3PnSC7UTFziNCMd34bZ9LXiQtdJkh9HSbi33RLCdjDAdcpkNVzevwl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark 15 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid032phWxzqnEKJZQWFhkwpo9widuNESSN8vTSst4myEn7rtyWGX17KVvqYJV926nzk9l</t>
-  </si>
-  <si>
-    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
-Theo dõi   · · Theo dõi Nhìn các bạn vui tươi hào hứng khi học cùng cô thích quá a 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bao.binh.1253</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Ở trường mình ngày nào các con cũng đc học tiếng anh 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>Bistar Ecopark Bistar Ecopark Bistar Ecopark Bistar Ecopark Dạ, hôm nào các con cũng được học tiếng Anh vui lắm mẹ Bill à. 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/lyh.tao</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02wt8cVCRAByc1qau2tnbAWhJmVkhs9ygtYjQXho9FsfAS26ZkZyxAymKUZbAaWWAnl</t>
-  </si>
-  <si>
-    <t>Mỹ Linh Mỹ Linh Mỹ Linh Mỹ Linh Đoàn Minh Châu
-Na Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu 24 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02tuubobCa9qmYVvJTXj57pdmt1jVMauQ8quohGc5kyVFNeZR6XPWTqbjmGoZbJUagl</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Hqua Bill mới thiết kế ra chiếc xe cảnh sát 50 tuần Thích Thích 3 3</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/vit.hensom</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid049oYjHqtgjppVeqSJrmKGpHdB33APYmnFU7KEYW2oCo8tCxzcrH2fNbyfnsy1gBJl</t>
-  </si>
-  <si>
-    <t>Fan cứng Ngat Phi Ngat Phi Ngat Phi Ngat Phi Hôm trc mẹ thấy trong balo em có lá cờ, mẹ hỏi em đây là cờ nước nào, em bảo "cờ Nauy". Em bé Sữa tồ của mẹ học được nhiều điều hay ở trường Bistar lắm ạ 3 tuần Thích Thích 2 2</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02smQ4EvviwDoZNQ5G57Xaf9MqifvuHJVsqirLB8HLd3NoUNx56JBLeVXYBoWpMovxl</t>
+    <t>Duong Van Duong Van Duong Van Duong Van Các con dễ thương quá! 50 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hathu.luu.77</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid032L61YNP2gJpbTGDdA2eANJbQBQejVWNHNRU5ThQo5fbdK6dGwmEKUGQqCNshNjiXl</t>
+  </si>
+  <si>
+    <t>Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu hellô 11 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Hồng Ngọc Hồng Ngọc Hồng Ngọc Hồng Ngọc 11 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu hj 11 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid028QjA61KTpDz9vY7dSH93oeShePSC1BBmfeTsCBGoGkwA6LpHNqnUBAN5jgQGKd3zl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark 2 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0p4FsKqZGqPCS6subcztWg2swXxDzwhaEdBUXh4TaUaRgvKEH21AJTLX9q1zaLYjpl</t>
+  </si>
+  <si>
+    <t>Fan cứng Ngat Phi Ngat Phi Ngat Phi Ngat Phi Sữa đến trường được trải nghiệm bao nhiêu hoạt động vui và ý nghĩa
+Em cảm ơn trường Bistar nhiều lắm ạ 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid09pdt6TuhN6Q2U66QvRU8yhwbJCKgJzumeowEfn2UgEp4ApDBSFuEmf64N53CJ4dpl</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Trông như thật kaka 3 tuần Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0KckKSk3Jk7mBsbaKc9FguV4TEQrSJQX7v341yXjQCGZBitxL6GXr3JrrWMimMT1pl</t>
+  </si>
+  <si>
+    <t>Giang Thị Loan Giang Thị Loan Giang Thị Loan Giang Thị Loan Tuyệt vời quá bác Bình ạ. Cái này rất cần thiết cho các bé 18 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Trần Diệu Ly Trần Diệu Ly Trần Diệu Ly Trần Diệu Ly 18 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.huyen.504746</t>
+  </si>
+  <si>
+    <t>Nguyễn Huyền Nguyễn Huyền Nguyễn Huyền Nguyễn Huyền 18 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/baodubai09</t>
+  </si>
+  <si>
+    <t>Hồ Khánh Linh Hồ Khánh Linh Hồ Khánh Linh Hồ Khánh Linh Cho mình xin thông tin ạ 18 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02WVsVmW7cX6AVQbe6136fjHZsPkRQcph2qhwwBpQoBpLLooTgSQ5xVpuza69ReUFFl</t>
+  </si>
+  <si>
+    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
+Theo dõi   · · Theo dõi 30 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid059o5JcXXAmHnJK9zRDcvkjBuuMcVipMFrC8BBfyHZKNFAc33NrKetCWCsAsvSr9Ql</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0zA4SgwxNcQQhoBVxd9VTyVcgTQW4CFniseDLxd8wBjtNiRfdcCqmDANt1WKDEF1Al</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02cuBjJaDLyY7iZwaDuFiTbAALREi3duSQQkbgNhJjz8opmT1aamwWRDaDy2PtdR9Wl</t>
+  </si>
+  <si>
+    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 36 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0p3bs2d2dGLuLAWNMosge7cruKHYV962ATfbcDvurdmXiErByGXpU7oBqavXZXvDtl</t>
   </si>
   <si>
     <t>Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Đoàn Minh Châu Yêunquas 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/mr.cephan</t>
   </si>
   <si>
     <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
 Theo dõi   · · Theo dõi Trường trang trí đẹp quá 1 năm Thích Thích 2 2</t>
   </si>
   <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0wz941ZpvgWtrudqoEm2V5Qk8U9afNP433WYkKon5cXJxh9WU4YL9QQmWPipCC4T1l</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 38 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02mSnDbovQEhaB6TMG6Ft7rLiyzgYra5M6ysQEAMjqvvhqjxWbRXh4Jh3qmrg7v7AEl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 35 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Duong Van Duong Van Duong Van Duong Van Tuyệt vời quá 35 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02PLYWf3wQQjk46HGk5Fuo9hBm9fuEe926LS38aQb41DkEY9ocUkPep1vPHstLkUe9l</t>
-  </si>
-  <si>
-    <t>Giang Thị Loan Giang Thị Loan Giang Thị Loan Giang Thị Loan Tuyệt vời quá bác Bình ạ. Cái này rất cần thiết cho các bé 18 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Trần Diệu Ly Trần Diệu Ly Trần Diệu Ly Trần Diệu Ly 18 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/nguyen.huyen.504746</t>
-  </si>
-  <si>
-    <t>Nguyễn Huyền Nguyễn Huyền Nguyễn Huyền Nguyễn Huyền 18 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/baodubai09</t>
-  </si>
-  <si>
-    <t>Hồ Khánh Linh Hồ Khánh Linh Hồ Khánh Linh Hồ Khánh Linh Cho mình xin thông tin ạ 18 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02AzzwxQZ9aCUiHWjPCe8y11eS8AL8H3XeWkmsUn9RnXqQNyk1RL41Jd5sKPsSNCdcl</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Hnay Bill lại baoe mai mặc bộ kia tiếp đi làm BTV haha 2 ngày Thích Thích 2 2</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/@mainga.happymusickids/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0NhrJwQtPkWJ3zeuykLoRNhTGcjA7uEbroWyZqgJy1LiBsvwV2JjL8Azcz6SHhVXPl</t>
-  </si>
-  <si>
-    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
-Theo dõi   · · Theo dõi 21 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Nguyenthanhhanh1990</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02iVYDN2VnZ7yKPGUVT6ttmvPYzxP6TyaYDLroqraTzmb8L9TXnd4UCweVu6RwKpb7l</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh good 12 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh wow 10 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh woww 11 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh wow 11 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02VNnGkF1jXtkXXpSD5t5rfPEDRRqjhxywGXroeKCkqYgmtEBU9vuLtxmfMfb1P3eul</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 31 tuần Thích Thích</t>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02Vgao1kKCXy663S4XBNcG7JeuAQ1YNUXGjf174ueecuq98Va4sT5Zwxi7Vhz6hD82l</t>
   </si>
   <si>
     <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
 Theo dõi   · · Theo dõi Các siêu nhí đáng yêu là đây rồi. 31 tuần Thích Thích</t>
   </si>
   <si>
-    <t>https://www.facebook.com/nhaccungoaitroi</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0GR66wGS39wCJtwsv7ycaxcAXs7NNuQ27mKvvFocjqcP8gZG6Hwfci39yLspRGjQfl</t>
-  </si>
-  <si>
-    <t>Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Sân Chơi Nhạc Cụ Ngoài Trời Chúc Thầy/Cô một năm học mới thật nhiều niềm vui, gặt hái nhiều thành công và luôn giữ được tình yêu với nghề giáo cao quý. Kính chúc Thầy/Cô sức khỏe và hạnh phúc
-! 27 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid05Kx5bkoFzM46g76wVyticENcbgMx1p43oYJVFiQSEEYc4xrBBQd3b1ikT1CZBpTMl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 37 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02cbPD34usyNfZbW5cUWqa4EuvR5kSCn48hkgwgnpcsmBPv3GHVNtSQKAcdN8mDoA8l</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 36 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02cpGcmkLBgU1C3NXrZfspbeJf8KEfBkCGqvVGDR659aszoJ5ouXLgQUCL5Tc6m8Lil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0DnjwMnDXvKK4CPJ2Li5uxCEfnnj4pBnpmw1dhv7VSg9DT6MJcxHRsuavzSQbpSHgl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/hathu.luu.77</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid032WF1qWemVpMkoZwJDzHE6cGLL52Hvr3PrkHYQ8cRGJm9UfnXVLhWDcmnP75s8TLtl</t>
-  </si>
-  <si>
-    <t>Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu hellô 11 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu Ha Thu Lưu hj 11 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Hồng Ngọc Hồng Ngọc Hồng Ngọc Hồng Ngọc 11 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid09rATiMv919CC45sjgr7i6SETtZDHXLF5XLtPSsS5XqAhScxdUu1svaTVgCVRL2PSl</t>
-  </si>
-  <si>
-    <t>Duong Van Duong Van Duong Van Duong Van Các con dễ thương quá! 37 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0ukWNczxShzYje5sgaQBvZfd3USApiQLfb1CW8peRzn8wN78Z1qwu6B8J9tZmumQfl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid029rGjdLmkVv6cbkuuA6Zis6LZvwFigKLA9LwugAteU8rM2KTjZowUVX8m8DGYm5mxl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02vVkek2w2umJSZ1trvYM49YL2jm61e3zQwv8XqARGJgR9xrKHSPAk8wDe48ydfECXl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/giangluvy</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02ze8ArsTtQpCvJ5BLVzAg2TYeteG9Gt895wiWLpP2LjzuYfsSK6PyRjHaMqhhZQ8ml</t>
+    <t>https://www.facebook.com/Nguyenthanhhanh1990</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02iKPD4tE3jXg2wcZHBBtt1YUn5iESjrG5u1x4bLNeBMa2pLikuAGLjB9CjBzmN5DPl</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh good 12 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh woww 11 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh Nguyễn Thanh Hạnh wow 11 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hoanquoc.pham</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02uAYRyDcaEWTFAdMSwFzr37BKc8WQAVYXAajuNvz8zyJqzE8Dnz54nETNc2zxSbB6l</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Hoàn AZ Phạm Quốc Hoàn AZ Phạm Quốc Hoàn AZ Phạm Quốc Hoàn AZ . 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0jpCvRzVwP7AV6CgRF4e2cvpMRk8G1LpkFo6tcewszhBDmGkHxixNtZVPjJb9KsHfl</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van Món ăn phong phú quá ạ ! 1 năm Thích Thích</t>
+  </si>
+  <si>
+    <t>Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Các món ăn ngon thế. 1 năm Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0R6L7CsApbxVr8qEcRC4ETGjPgF9f9G5X39iB3BshqyczWDUXnheBkiXPYUsXkMmfl</t>
+  </si>
+  <si>
+    <t>Kurt Robinson Kurt Robinson Kurt Robinson Kurt Robinson Tiếc quá em không về dự lễ với mọi người được. 31 tuần Thích Thích</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0A44xkA6siMQXYqgpRveknXEADAVL1VXyfztFkQoSjBtiL6vb6G6zW7SoL4Ph4rUCl</t>
+  </si>
+  <si>
+    <t>Fan cứng Phan Ce Phan Ce Phan Ce Phan Ce   ·
+Theo dõi   · · Theo dõi Các bé đáng yêu quá 1 năm Thích Thích 3 3</t>
+  </si>
+  <si>
+    <t>Duong Van Duong Van Duong Van Duong Van 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>Nguyen Huong Giang Nguyen Huong Giang Nguyen Huong Giang Nguyen Huong Giang Bảo sao bạn Bư đi bộ ko bao h thấy kêu ạ 1 năm Thích Thích 2 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0PGPyKWiXvPWerRSnQDnH9WcWYq3gpJhutsyGQcxvDGuvdmJKCAyCL5Fp3wEc1bbel</t>
+  </si>
+  <si>
+    <t>Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Giống Cây Nông Nghiệp Tuyệt vời quá đi 2 năm Thích Thích</t>
   </si>
   <si>
     <t>Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang   ·
-Theo dõi   · · Theo dõi Đinh Thương Đinh Thương Đinh Thương Đinh Thương 50 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid08VrrF3mjMzfnFuhgbXseYEX3fvYwemB8E9QSafZtaBenknJnP6ZKngvJ4ZWDaiSvl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 29 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
-Theo dõi   · · Theo dõi Tuyệt quá ạ 29 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid05F9NkqbB92E7XhN3z7DhmTDCzBs4HWhsKC8dvZHwE81J9yMqZvTDnoW5dEKH4GSml</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 32 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02Z5VFuTBYsBhm7zwXeVxQsJ9xBYPhSywkNxLJdZP5Ssn5gpW1Y1DZemkpfRK6A4cNl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02sn44Y9TNWAHSuK4rJFzpLraoWzPbijRbCCG7Uo8KJhxoMk35mcjfBTTwKygXymrxl</t>
-  </si>
-  <si>
-    <t>Fan cứng Ngat Phi Ngat Phi Ngat Phi Ngat Phi Sữa đến trường được trải nghiệm bao nhiêu hoạt động vui và ý nghĩa
-Em cảm ơn trường Bistar nhiều lắm ạ 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0VCQZQyaCviqaqDL3zDZ97ve7z4bAPFLuG8uQWnsN2V5eyEon6nSkygJwQTnR9qFUl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02Wg2W4ePMLWy14dqCLS4EjwUHkELXt4ZMHL2equt7s3ntejZrqY56x7TucN2Ania2l</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 30 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids Mai Nga - Happy Music Kids   ·
-Theo dõi   · · Theo dõi 29 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0DGpNUFRHYduddACAjzUznz7qXWNrbDD6abjVaWTcJa6rsNfjED5n6EbqSzjFWQFwl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0M5AYcTth1qjYH7Q5u89e7awz7TGMfUaA34AmPg2HfbRWgtq3hfvWwGGBvsk7Twdql</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0C5FUBv1kLVcvgwcyEJeM98HvidovQrvHcvhgeWCtn9ABDwUCgyTx2SAEUDn7gMcJl</t>
-  </si>
-  <si>
-    <t>Vi Băng Vi Băng Vi Băng Vi Băng   ·
-Theo dõi   · · Theo dõi Nhìn em biểu cảm ghét quá 1 năm Thích Thích</t>
-  </si>
-  <si>
-    <t>Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang Đỗ Hương Giang   ·
-Theo dõi   · · Theo dõi Hà Nguyễn Hà Nguyễn Hà Nguyễn Hà Nguyễn 1 năm Thích Thích 2 2</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02DYS5Jmoo2pecrXXpw38uNJbSsCTBQAwSx4qhJDXyZZhCeE3GqH2wYVYTqX6y3sTol</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Trông như thật kaka 3 tuần Thích Thích 2 2</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0CDmZUxXGbA7oe6cMgS3o3ZKPAUskEJinprNmx8C1a13cDG57yZgzzHaCpE3PXzrwl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 27 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid02b86D4nTtv1SVxgey3tJH5RfgmYYYDvWQMm9zoXnFdXnTwXfNLFCBzjegmxZS8nL5l</t>
-  </si>
-  <si>
-    <t>Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Đặng Thị Lê Dung Cám ơn các cô đã phát động chương trình tác động lớn -tới thế hê mầm non 23 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Tuyệt quá 23 tuần Thích Thích 2 2</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid033z5giosdCKWPoQopWeazL9QqNB4h86iZoNkjha1YVb35qc38Xh5kJrJpXNe3aHAyl</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Nguyễn Thị Hồng Vân Bill thik lắm ạ, về kể sung sướng 43 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0KhDvQ7RfStdhxHMo4C8JWzn9NR4PQbxNmzkSthy3Q6zztWJjhj5rGDNB5QLxYvUMl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0uxCaKTrrMrzJB5Q1AYzZdejYpjBheyyYrbRfck54Yxxg2HoKNNeG68cfdSrC6gSl</t>
-  </si>
-  <si>
-    <t>Tác giả Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark Mầm non Bistar Ecopark @người theo dõi 26 tuần Thích Thích</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0zB9gn2wiYAoJpQVL13xu1HjoLc5XTZmEfEubG2sFEFgmYx6mrTSMFU8Mv8LK3GApl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid035rCXhT4WHHZwnbbZiKnmWPatWU8gLw9oj9ZrFNggutZqzkVa5i8yDvQNtBcNvnz1l</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/bistar.ecopark/posts/pfbid0QnXawMsMbkVSnHC8BFWYiBQuhGNE92cvuJNRxrYnwPZ6u2b8pZyvFHpAmDZch8NFl</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kurtcobainrock</t>
-  </si>
-  <si>
-    <t>Kurt Robinson Kurt Robinson Kurt Robinson Kurt Robinson Tiếc quá em không về dự lễ với mọi người được. 31 tuần Thích Thích</t>
+Theo dõi   · · Theo dõi Phuong Do-Jennie Phuong Do-Jennie Phuong Do-Jennie Phuong Do-Jennie 2 năm Thích Thích</t>
   </si>
 </sst>
 </file>
@@ -776,18 +1085,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,7 +1136,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -839,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -847,16 +1153,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -864,16 +1170,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -881,16 +1187,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -898,16 +1204,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -915,16 +1221,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -932,16 +1238,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -949,16 +1255,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -966,16 +1272,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -983,16 +1289,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1000,16 +1306,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1017,7 +1323,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -1034,7 +1340,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1043,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1051,16 +1357,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1068,16 +1374,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1085,10 +1391,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1102,16 +1408,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1119,16 +1425,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1136,16 +1442,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1153,16 +1459,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1170,16 +1476,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1187,16 +1493,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1204,16 +1510,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1221,16 +1527,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1238,16 +1544,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1255,16 +1561,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1272,16 +1578,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1289,16 +1595,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1306,16 +1612,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1323,16 +1629,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1340,16 +1646,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1357,16 +1663,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1374,16 +1680,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1391,16 +1697,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1408,16 +1714,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1425,16 +1731,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1442,16 +1748,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1459,16 +1765,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1476,16 +1782,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1493,16 +1799,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1510,16 +1816,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1527,16 +1833,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1544,16 +1850,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1561,16 +1867,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1578,16 +1884,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1595,16 +1901,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1612,16 +1918,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1629,16 +1935,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1646,16 +1952,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1663,16 +1969,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1680,16 +1986,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1697,16 +2003,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1714,16 +2020,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1731,16 +2037,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1748,16 +2054,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1765,16 +2071,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1782,16 +2088,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1799,16 +2105,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1816,16 +2122,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1833,16 +2139,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1850,16 +2156,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1867,16 +2173,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1884,16 +2190,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1901,16 +2207,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1918,16 +2224,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1935,16 +2241,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1952,16 +2258,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1969,18 +2275,902 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>181</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>197</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>199</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" t="s">
+        <v>204</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" t="s">
+        <v>204</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>210</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>212</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>213</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>215</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>216</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>217</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>218</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>216</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>219</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>221</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>222</v>
+      </c>
+      <c r="F122">
         <v>0</v>
       </c>
     </row>
